--- a/Practice Sessions/Session 1/DGE_CRED_Model_sol/ExcelFiles/ModelSimulationandCalibration3Sectorsand1Regions_etaXhigh.xlsx
+++ b/Practice Sessions/Session 1/DGE_CRED_Model_sol/ExcelFiles/ModelSimulationandCalibration3Sectorsand1Regions_etaXhigh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 1 revised\DGE_CRED_Model_sol\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 1 revised/Session 1 final/DGE_CRED_Model_sol/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851AEA4-041C-473D-904D-3438E36089AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151AF207-330F-7240-9C55-966B46FF7CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2072,12 +2072,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.41796875" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2095,23 +2095,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -7712,23 +7712,23 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -13329,23 +13329,23 @@
       <selection activeCell="C2" sqref="C2:C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -19426,23 +19426,23 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -20935,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -21385,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -22060,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -23410,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -25523,23 +25523,23 @@
       <selection activeCell="C2" sqref="C2:C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -25607,7 +25607,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26132,7 +26132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26207,7 +26207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -26282,7 +26282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -26807,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -27182,7 +27182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -27407,7 +27407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -27632,7 +27632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -27857,7 +27857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -28157,7 +28157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -28382,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -28907,7 +28907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -29207,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -29432,7 +29432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -29582,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -29957,7 +29957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -30332,7 +30332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -30482,7 +30482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -30707,7 +30707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -30932,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -31007,7 +31007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -31082,7 +31082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -31382,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -31457,7 +31457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -31620,23 +31620,23 @@
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -31779,7 +31779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -31854,7 +31854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -31929,7 +31929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32004,7 +32004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32079,7 +32079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32154,7 +32154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -32379,7 +32379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -32454,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -32529,7 +32529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -32604,7 +32604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -32679,7 +32679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -32754,7 +32754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -32829,7 +32829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -32979,7 +32979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -33054,7 +33054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -33129,7 +33129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -33204,7 +33204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -33279,7 +33279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -33354,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -33504,7 +33504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -33579,7 +33579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -33654,7 +33654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -33729,7 +33729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -33879,7 +33879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -33954,7 +33954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -34029,7 +34029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -34104,7 +34104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -34179,7 +34179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -34329,7 +34329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -34479,7 +34479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -34554,7 +34554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -34629,7 +34629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -34779,7 +34779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -35004,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -35079,7 +35079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -35154,7 +35154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -35304,7 +35304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -35379,7 +35379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -35454,7 +35454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -35604,7 +35604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -35679,7 +35679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -35754,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -35979,7 +35979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -36054,7 +36054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -36129,7 +36129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -36204,7 +36204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -36429,7 +36429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -36504,7 +36504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -36579,7 +36579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -36804,7 +36804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -36879,7 +36879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -36954,7 +36954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -37029,7 +37029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -37104,7 +37104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -37179,7 +37179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -37254,7 +37254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -37404,7 +37404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -37629,7 +37629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -37717,23 +37717,23 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -37801,7 +37801,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37951,7 +37951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -38176,7 +38176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -38326,7 +38326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -38401,7 +38401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -38476,7 +38476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -38551,7 +38551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -38626,7 +38626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -38701,7 +38701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -38776,7 +38776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -38851,7 +38851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -39001,7 +39001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -39076,7 +39076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -39151,7 +39151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -39226,7 +39226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -39301,7 +39301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -39451,7 +39451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -39526,7 +39526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -39601,7 +39601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -39676,7 +39676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -39751,7 +39751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -39826,7 +39826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -39901,7 +39901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -39976,7 +39976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -40051,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -40126,7 +40126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -40201,7 +40201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -40276,7 +40276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -40501,7 +40501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -40576,7 +40576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -40651,7 +40651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -40726,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -40801,7 +40801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -40876,7 +40876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -40951,7 +40951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -41026,7 +41026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -41101,7 +41101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -41176,7 +41176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -41251,7 +41251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -41326,7 +41326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -41401,7 +41401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -41476,7 +41476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -41551,7 +41551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -41626,7 +41626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -41701,7 +41701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -41776,7 +41776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -41851,7 +41851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -41926,7 +41926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -42001,7 +42001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -42076,7 +42076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -42151,7 +42151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -42226,7 +42226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -42301,7 +42301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -42376,7 +42376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -42451,7 +42451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -42601,7 +42601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -42676,7 +42676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -42751,7 +42751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -42826,7 +42826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -42901,7 +42901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -42976,7 +42976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -43051,7 +43051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -43126,7 +43126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -43201,7 +43201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -43276,7 +43276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -43351,7 +43351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -43426,7 +43426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -43501,7 +43501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -43576,7 +43576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -43726,7 +43726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -43812,19 +43812,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.41796875" customWidth="1"/>
-    <col min="2" max="2" width="39.62890625" customWidth="1"/>
-    <col min="3" max="3" width="9.15625"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43832,7 +43832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -43840,7 +43840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -43848,7 +43848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43856,7 +43856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43864,12 +43864,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -43877,12 +43877,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -43890,7 +43890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -43898,7 +43898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -43919,28 +43919,28 @@
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.68359375" customWidth="1"/>
-    <col min="2" max="2" width="7.734375" customWidth="1"/>
-    <col min="3" max="3" width="27.3125" customWidth="1"/>
-    <col min="4" max="4" width="27.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.89453125" customWidth="1"/>
-    <col min="6" max="6" width="25.68359375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.89453125" customWidth="1"/>
-    <col min="9" max="9" width="24.41796875" customWidth="1"/>
-    <col min="10" max="10" width="33.5234375" customWidth="1"/>
-    <col min="11" max="11" width="39.734375" customWidth="1"/>
-    <col min="12" max="12" width="6.47265625" customWidth="1"/>
-    <col min="13" max="13" width="33.734375" customWidth="1"/>
-    <col min="14" max="14" width="5.83984375" customWidth="1"/>
-    <col min="15" max="15" width="5.5234375" customWidth="1"/>
-    <col min="16" max="16" width="56.89453125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
+    <col min="11" max="11" width="39.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
+    <col min="15" max="15" width="5.5" customWidth="1"/>
+    <col min="16" max="16" width="56.83203125" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -43993,7 +43993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -44052,7 +44052,7 @@
         <v>0.97340000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -44099,7 +44099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -44147,7 +44147,7 @@
         <v>0.29957456931366788</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P5" t="s">
         <v>54</v>
       </c>
@@ -44155,7 +44155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P6" t="s">
         <v>55</v>
       </c>
@@ -44163,7 +44163,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P7" t="s">
         <v>56</v>
       </c>
@@ -44171,7 +44171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P8" t="s">
         <v>57</v>
       </c>
@@ -44179,7 +44179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P9" t="s">
         <v>58</v>
       </c>
@@ -44200,14 +44200,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5234375" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="43.3125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -44218,7 +44218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -44229,7 +44229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -44240,7 +44240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -44262,12 +44262,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -44278,7 +44278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -44289,12 +44289,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -44305,7 +44305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -44316,7 +44316,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -44327,12 +44327,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -44343,7 +44343,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -44354,7 +44354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -44374,18 +44374,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="86.20703125" customWidth="1"/>
-    <col min="2" max="2" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="77.89453125" customWidth="1"/>
+    <col min="1" max="1" width="86.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -44396,7 +44396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -44407,7 +44407,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -44418,7 +44418,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -44429,7 +44429,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -44440,7 +44440,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -44451,7 +44451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -44462,7 +44462,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -44473,7 +44473,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -44484,7 +44484,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -44495,7 +44495,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -44506,7 +44506,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -44517,7 +44517,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -44528,7 +44528,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -44539,7 +44539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -44550,7 +44550,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -44561,7 +44561,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -44572,12 +44572,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -44588,7 +44588,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -44599,7 +44599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -44610,12 +44610,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -44637,7 +44637,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -44648,12 +44648,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -44664,7 +44664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -44675,7 +44675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -44686,12 +44686,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -44702,7 +44702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -44713,7 +44713,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -44724,12 +44724,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -44740,7 +44740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -44751,7 +44751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -44762,12 +44762,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -44778,7 +44778,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -44789,7 +44789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -44800,12 +44800,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -44816,7 +44816,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -44827,7 +44827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -44838,12 +44838,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -44854,7 +44854,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -44865,7 +44865,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -44876,12 +44876,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -44892,7 +44892,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -44903,7 +44903,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -44914,12 +44914,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -44930,7 +44930,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -44941,7 +44941,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -44952,12 +44952,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -44968,7 +44968,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -44979,7 +44979,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -44990,12 +44990,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -45006,7 +45006,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -45017,7 +45017,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -45041,15 +45041,15 @@
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -45075,7 +45075,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45107,7 +45107,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45139,7 +45139,7 @@
         <v>1.02565</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>1.0243675000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45203,7 +45203,7 @@
         <v>1.023149125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45235,7 +45235,7 @@
         <v>1.0219916687499999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45267,7 +45267,7 @@
         <v>1.0208920853125001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45299,7 +45299,7 @@
         <v>1.0198474810468749</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45331,7 +45331,7 @@
         <v>1.0188551069945313</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -45363,7 +45363,7 @@
         <v>1.0179123516448048</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -45395,7 +45395,7 @@
         <v>1.0170167340625644</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -45427,7 +45427,7 @@
         <v>1.0161658973594363</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -45459,7 +45459,7 @@
         <v>1.0153576024914643</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -45491,7 +45491,7 @@
         <v>1.0145897223668912</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -45523,7 +45523,7 @@
         <v>1.0138602362485467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -45555,7 +45555,7 @@
         <v>1.0131672244361194</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -45587,7 +45587,7 @@
         <v>1.0125088632143133</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -45619,7 +45619,7 @@
         <v>1.0118834200535978</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -45651,7 +45651,7 @@
         <v>1.0112892490509178</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -45683,7 +45683,7 @@
         <v>1.0107247865983719</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -45715,7 +45715,7 @@
         <v>1.0101885472684533</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -45747,7 +45747,7 @@
         <v>1.0096791199050306</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -45779,7 +45779,7 @@
         <v>1.0091951639097791</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -45811,7 +45811,7 @@
         <v>1.0087354057142901</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -45843,7 +45843,7 @@
         <v>1.0082986354285757</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -45875,7 +45875,7 @@
         <v>1.0078837036571469</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -45907,7 +45907,7 @@
         <v>1.0074895184742896</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -45939,7 +45939,7 @@
         <v>1.007115042550575</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -45971,7 +45971,7 @@
         <v>1.0067592904230462</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -46003,7 +46003,7 @@
         <v>1.0064213259018939</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -46035,7 +46035,7 @@
         <v>1.0061002596067994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -46067,7 +46067,7 @@
         <v>1.0057952466264592</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -46099,7 +46099,7 @@
         <v>1.0055054842951363</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -46131,7 +46131,7 @@
         <v>1.0052302100803796</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -46163,7 +46163,7 @@
         <v>1.0049686995763605</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -46195,7 +46195,7 @@
         <v>1.0047202645975426</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -46227,7 +46227,7 @@
         <v>1.0044842513676655</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -46259,7 +46259,7 @@
         <v>1.0042600387992822</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -46291,7 +46291,7 @@
         <v>1.004047036859318</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -46323,7 +46323,7 @@
         <v>1.003844685016352</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -46355,7 +46355,7 @@
         <v>1.0036524507655344</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -46387,7 +46387,7 @@
         <v>1.0034698282272578</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -46419,7 +46419,7 @@
         <v>1.0032963368158949</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>1.0031315199751001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -46483,7 +46483,7 @@
         <v>1.0029749439763451</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -46515,7 +46515,7 @@
         <v>1.0028261967775278</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -46547,7 +46547,7 @@
         <v>1.0026848869386515</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -46579,7 +46579,7 @@
         <v>1.002550642591719</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -46611,7 +46611,7 @@
         <v>1.0024231104621331</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -46643,7 +46643,7 @@
         <v>1.0023019549390264</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -46675,7 +46675,7 @@
         <v>1.0021868571920751</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -46707,7 +46707,7 @@
         <v>1.0020775143324712</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -46739,7 +46739,7 @@
         <v>1.0019736386158478</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -46771,7 +46771,7 @@
         <v>1.0018749566850553</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -46803,7 +46803,7 @@
         <v>1.0017812088508025</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -46835,7 +46835,7 @@
         <v>1.0016921484082624</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -46867,7 +46867,7 @@
         <v>1.0016075409878493</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -46899,7 +46899,7 @@
         <v>1.0015271639384569</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -46931,7 +46931,7 @@
         <v>1.0014508057415339</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -46963,7 +46963,7 @@
         <v>1.0013782654544572</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -46995,7 +46995,7 @@
         <v>1.0013093521817344</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -47027,7 +47027,7 @@
         <v>1.0012438845726477</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -47059,7 +47059,7 @@
         <v>1.0011816903440154</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>1.0011226058268146</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -47123,7 +47123,7 @@
         <v>1.0010664755354739</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -47155,7 +47155,7 @@
         <v>1.0010131517587002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -47187,7 +47187,7 @@
         <v>1.0009624941707651</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -47219,7 +47219,7 @@
         <v>1.0009143694622269</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -47251,7 +47251,7 @@
         <v>1.0008686509891156</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -47283,7 +47283,7 @@
         <v>1.0008252184396598</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -47315,7 +47315,7 @@
         <v>1.0007839575176767</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -47347,7 +47347,7 @@
         <v>1.0007447596417929</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -47379,7 +47379,7 @@
         <v>1.0007075216597032</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -47411,7 +47411,7 @@
         <v>1.000672145576718</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -47443,7 +47443,7 @@
         <v>1.0006385382978822</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -47475,7 +47475,7 @@
         <v>1.0006066113829881</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -47507,7 +47507,7 @@
         <v>1.0005762808138388</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -47539,7 +47539,7 @@
         <v>1.0005474667731467</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v>1.0005200934344893</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -47603,7 +47603,7 @@
         <v>1.0004940887627649</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -47635,7 +47635,7 @@
         <v>1.0004693843246266</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -47667,7 +47667,7 @@
         <v>1.0004459151083953</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -47699,7 +47699,7 @@
         <v>1.0004236193529756</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -47731,7 +47731,7 @@
         <v>1.0004024383853267</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -47763,7 +47763,7 @@
         <v>1.0003823164660606</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -47795,7 +47795,7 @@
         <v>1.0003632006427574</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -47827,7 +47827,7 @@
         <v>1.0003450406106196</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -47859,7 +47859,7 @@
         <v>1.0003277885800885</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -47891,7 +47891,7 @@
         <v>1.0003113991510841</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -47923,7 +47923,7 @@
         <v>1.00029582919353</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -47955,7 +47955,7 @@
         <v>1.0002810377338536</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -47987,7 +47987,7 @@
         <v>1.0002669858471609</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -48019,7 +48019,7 @@
         <v>1.0002536365548027</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -48051,7 +48051,7 @@
         <v>1.0002409547270625</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -48083,7 +48083,7 @@
         <v>1.0002289069907095</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -48115,7 +48115,7 @@
         <v>1.0002174616411741</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -48147,7 +48147,7 @@
         <v>1.0002065885591154</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -48179,7 +48179,7 @@
         <v>1.0001962591311595</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -48211,7 +48211,7 @@
         <v>1.0001864461746015</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -48256,23 +48256,23 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -48340,7 +48340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -48415,7 +48415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -48490,7 +48490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -48565,7 +48565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -48640,7 +48640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -48715,7 +48715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -48790,7 +48790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -48865,7 +48865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -49015,7 +49015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -49090,7 +49090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -49165,7 +49165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -49240,7 +49240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -49315,7 +49315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -49390,7 +49390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -49465,7 +49465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -49540,7 +49540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -49615,7 +49615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -49690,7 +49690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -49765,7 +49765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -49840,7 +49840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -49915,7 +49915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -50065,7 +50065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -50140,7 +50140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -50215,7 +50215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -50290,7 +50290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -50365,7 +50365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -50440,7 +50440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -50515,7 +50515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -50665,7 +50665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -50740,7 +50740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -50815,7 +50815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -50890,7 +50890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -50965,7 +50965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -51040,7 +51040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -51115,7 +51115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -51190,7 +51190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -51265,7 +51265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -51340,7 +51340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -51415,7 +51415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -51490,7 +51490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -51565,7 +51565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -51640,7 +51640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -51715,7 +51715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -51940,7 +51940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -52015,7 +52015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -52090,7 +52090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -52165,7 +52165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -52240,7 +52240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -52315,7 +52315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -52390,7 +52390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -52465,7 +52465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -52540,7 +52540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -52615,7 +52615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -52690,7 +52690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -52765,7 +52765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -52840,7 +52840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -52915,7 +52915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -52990,7 +52990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -53065,7 +53065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -53140,7 +53140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -53215,7 +53215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -53290,7 +53290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -53365,7 +53365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -53440,7 +53440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -53515,7 +53515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -53590,7 +53590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -53665,7 +53665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -53740,7 +53740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -53815,7 +53815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -53890,7 +53890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -53965,7 +53965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -54040,7 +54040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -54115,7 +54115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -54190,7 +54190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -54265,7 +54265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -54353,23 +54353,23 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -54437,7 +54437,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -54508,7 +54508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -54579,7 +54579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -54650,7 +54650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -54721,7 +54721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -54792,7 +54792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -54863,7 +54863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -54934,7 +54934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -55005,7 +55005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -55076,7 +55076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -55147,7 +55147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -55218,7 +55218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -55289,7 +55289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -55360,7 +55360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -55431,7 +55431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -55502,7 +55502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -55573,7 +55573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -55644,7 +55644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -55715,7 +55715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -55786,7 +55786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -55857,7 +55857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -55928,7 +55928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -55999,7 +55999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -56141,7 +56141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -56212,7 +56212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -56283,7 +56283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -56354,7 +56354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -56425,7 +56425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -56496,7 +56496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -56567,7 +56567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -56638,7 +56638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -56709,7 +56709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -56780,7 +56780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -56851,7 +56851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -56922,7 +56922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -56993,7 +56993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -57064,7 +57064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -57135,7 +57135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -57206,7 +57206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -57277,7 +57277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -57348,7 +57348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -57419,7 +57419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -57490,7 +57490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -57561,7 +57561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -57632,7 +57632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -57703,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -57774,7 +57774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -57845,7 +57845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -57916,7 +57916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -57987,7 +57987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -58058,7 +58058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -58129,7 +58129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -58200,7 +58200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -58271,7 +58271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -58342,7 +58342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -58413,7 +58413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -58484,7 +58484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -58555,7 +58555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -58626,7 +58626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -58697,7 +58697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -58768,7 +58768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -58839,7 +58839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -58910,7 +58910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -58981,7 +58981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -59052,7 +59052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -59123,7 +59123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -59194,7 +59194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -59336,7 +59336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -59407,7 +59407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -59478,7 +59478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -59549,7 +59549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -59620,7 +59620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -59691,7 +59691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -59762,7 +59762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -59833,7 +59833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -59904,7 +59904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -59975,7 +59975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -60046,7 +60046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -60130,23 +60130,23 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.3671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -60214,7 +60214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -60285,7 +60285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -60356,7 +60356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -60427,7 +60427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -60498,7 +60498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -60569,7 +60569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -60640,7 +60640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -60711,7 +60711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -60782,7 +60782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -60853,7 +60853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -60924,7 +60924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -60995,7 +60995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -61066,7 +61066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -61137,7 +61137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -61208,7 +61208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -61279,7 +61279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -61350,7 +61350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -61421,7 +61421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -61492,7 +61492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -61563,7 +61563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -61634,7 +61634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -61705,7 +61705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -61776,7 +61776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -61847,7 +61847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -61918,7 +61918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -61989,7 +61989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -62060,7 +62060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -62131,7 +62131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -62202,7 +62202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -62273,7 +62273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -62344,7 +62344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -62415,7 +62415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -62486,7 +62486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -62557,7 +62557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -62628,7 +62628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -62699,7 +62699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -62770,7 +62770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -62841,7 +62841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -62912,7 +62912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -62983,7 +62983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -63054,7 +63054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -63125,7 +63125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -63196,7 +63196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -63267,7 +63267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -63338,7 +63338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -63409,7 +63409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -63480,7 +63480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -63551,7 +63551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -63622,7 +63622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -63693,7 +63693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -63764,7 +63764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -63835,7 +63835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -63906,7 +63906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -63977,7 +63977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -64048,7 +64048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -64119,7 +64119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -64190,7 +64190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -64261,7 +64261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -64332,7 +64332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -64403,7 +64403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -64474,7 +64474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -64545,7 +64545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -64616,7 +64616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -64687,7 +64687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -64758,7 +64758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -64829,7 +64829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -64900,7 +64900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -64971,7 +64971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -65042,7 +65042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -65113,7 +65113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -65184,7 +65184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -65255,7 +65255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -65326,7 +65326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -65397,7 +65397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -65468,7 +65468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -65539,7 +65539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -65610,7 +65610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -65681,7 +65681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -65752,7 +65752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -65823,7 +65823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
